--- a/成交量.xlsx
+++ b/成交量.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:J102"/>
+  <dimension ref="A2:K102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,50 +436,55 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
           <t>名次</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="C2" s="1" t="inlineStr">
         <is>
           <t>股名</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="D2" s="1" t="inlineStr">
         <is>
           <t>股號</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
+      <c r="E2" s="1" t="inlineStr">
         <is>
           <t>股價</t>
         </is>
       </c>
-      <c r="E2" s="1" t="inlineStr">
+      <c r="F2" s="1" t="inlineStr">
         <is>
           <t>漲跌</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
+      <c r="G2" s="1" t="inlineStr">
         <is>
           <t>漲跌幅(%)</t>
         </is>
       </c>
-      <c r="G2" s="1" t="inlineStr">
+      <c r="H2" s="1" t="inlineStr">
         <is>
           <t>最高</t>
         </is>
       </c>
-      <c r="H2" s="1" t="inlineStr">
+      <c r="I2" s="1" t="inlineStr">
         <is>
           <t>最低</t>
         </is>
       </c>
-      <c r="I2" s="1" t="inlineStr">
+      <c r="J2" s="1" t="inlineStr">
         <is>
           <t>價差</t>
         </is>
       </c>
-      <c r="J2" s="1" t="inlineStr">
+      <c r="K2" s="1" t="inlineStr">
         <is>
           <t>成交量</t>
         </is>
@@ -488,5200 +493,5700 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>2024/08/08_1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>元大台灣50反1</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>00632R.TW</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.51</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.93%</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>1.94%</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.72</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>424,601</t>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>364,926</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>2024/08/08_2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>復華台灣科技優息</t>
-        </is>
-      </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>00929.TW</t>
+          <t>群益ESG投等債20+</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>19.47</t>
+          <t>00937B.TWO</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>16.10</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.77%</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>19.47</t>
+          <t>0.80%</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>19.22</t>
+          <t>16.19</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>16.08</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>226,252</t>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>202,464</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>2024/08/08_3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>群益ESG投等債20+</t>
-        </is>
-      </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>00937B.TWO</t>
+          <t>復華台灣科技優息</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>15.96</t>
+          <t>00929.TW</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>18.67</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.68%</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>16.01</t>
+          <t>1.37%</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>15.95</t>
+          <t>18.85</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>18.55</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>190,337</t>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>148,201</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>2024/08/08_4</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>元大台灣價值高息</t>
-        </is>
-      </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>00940.TW</t>
+          <t>元大美債20年</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>9.78</t>
+          <t>00679B.TWO</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>31.26</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.41%</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>9.78</t>
+          <t>0.82%</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>9.66</t>
+          <t>31.36</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>31.23</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>146,658</t>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>133,733</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>2024/08/08_5</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>群益台灣精選高息</t>
-        </is>
-      </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>00919.TW</t>
+          <t>元大美債20正2</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>24.48</t>
+          <t>00680L.TW</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>9.35</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.21%</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>24.48</t>
+          <t>0.74%</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>24.01</t>
+          <t>9.36</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>9.28</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>132,928</t>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>124,994</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>2024/08/08_6</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>國泰永續高股息</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>00878.TW</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>23.10</t>
-        </is>
-      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>22.10</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.53%</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>23.15</t>
+          <t>1.21%</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>22.90</t>
+          <t>22.29</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>21.94</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>116,796</t>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>110,668</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>2024/08/08_7</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>元大高股息</t>
-        </is>
-      </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0056.TW</t>
+          <t>元大台灣價值高息</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>38.82</t>
+          <t>00940.TW</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>9.24</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.65%</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>38.82</t>
+          <t>0.96%</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>38.30</t>
+          <t>9.31</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>9.15</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>97,465</t>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>86,905</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>2024/08/08_8</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>元大滬深300正2</t>
-        </is>
-      </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>00637L.TW</t>
+          <t>國泰20年美債</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>13.06</t>
+          <t>00687B.TWO</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>32.50</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5.16%</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>13.39</t>
+          <t>0.85%</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>13.01</t>
+          <t>32.63</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>32.47</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>97,105</t>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>70,192</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>2024/08/08_9</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>富邦恒生國企正2</t>
-        </is>
-      </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>00665L.TW</t>
+          <t>國泰20年美債正2</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>6.15</t>
+          <t>00688L.TW</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>9.32</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>6.82%</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>6.34</t>
+          <t>0.75%</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>6.09</t>
+          <t>9.32</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>9.25</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>84,210</t>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>67,915</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>2024/08/08_10</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>群益科技高息成長</t>
-        </is>
-      </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>00946.TW</t>
+          <t>群益台灣精選高息</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>10.07</t>
+          <t>00919.TW</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>23.27</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.66%</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>10.09</t>
+          <t>1.27%</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>9.91</t>
+          <t>23.49</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>23.14</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>69,443</t>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>50,544</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>2024/08/08_11</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>元大美債20年</t>
-        </is>
-      </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>00679B.TWO</t>
+          <t>期街口布蘭特正2</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>30.12</t>
+          <t>00715L.TW</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>14.87</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.46%</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>30.14</t>
+          <t>3.12%</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>30.07</t>
+          <t>14.99</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>14.82</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>66,693</t>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>49,644</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>2024/08/08_12</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>元大美債20正2</t>
-        </is>
-      </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>00680L.TW</t>
+          <t>富邦恒生國企正2</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>8.58</t>
+          <t>00665L.TW</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>6.04</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1.04%</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>8.61</t>
+          <t>0.17%</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>8.57</t>
+          <t>6.06</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>5.80</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>53,428</t>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>48,265</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>2024/08/08_13</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>13</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>中信優息投資級債</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>00948B.TWO</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>10.13</t>
-        </is>
-      </c>
       <c r="E15" t="inlineStr">
         <is>
+          <t>10.21</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.78%</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>10.28</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>10.21</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
           <t>0.07</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>0.69%</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>10.16</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>10.12</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>41,037</t>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>46,889</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>2024/08/08_14</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>14</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>國泰20年美債</t>
-        </is>
-      </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>00687B.TWO</t>
+          <t>元大滬深300正2</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>31.34</t>
+          <t>00637L.TW</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>12.56</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.54%</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>31.41</t>
+          <t>0.40%</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>31.31</t>
+          <t>12.69</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>12.37</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>41,094</t>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>39,869</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>2024/08/08_15</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
           <t>15</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>中信成長高股息</t>
-        </is>
-      </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>00934.TW</t>
+          <t>國泰台灣5G+</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>19.76</t>
+          <t>00881.TW</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>22.50</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0.85%</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>19.76</t>
+          <t>2.22%</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>19.40</t>
+          <t>22.78</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>22.33</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>40,319</t>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>35,422</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>2024/08/08_16</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
           <t>16</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>復華香港正2</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>00650L.TW</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>9.30</t>
-        </is>
-      </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>9.22</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>6.06%</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>9.51</t>
+          <t>0.44%</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>9.19</t>
+          <t>9.23</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>8.85</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>36,111</t>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>30,962</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>2024/08/08_17</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
           <t>17</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>中信中國50正2</t>
-        </is>
-      </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>00753L.TW</t>
+          <t>國泰10Y+金融債</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>7.10</t>
+          <t>00933B.TWO</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>17.20</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>6.95%</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>7.29</t>
+          <t>0.64%</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>7.08</t>
+          <t>17.30</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>17.19</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>35,343</t>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>30,657</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>2024/08/08_18</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
           <t>18</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>國泰台灣5G+</t>
-        </is>
-      </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>00881.TW</t>
+          <t>元大台灣50</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>24.11</t>
+          <t>0050.TW</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>170.55</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>3.37%</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>24.18</t>
+          <t>2.07%</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>23.78</t>
+          <t>172.40</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>169.00</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>34,883</t>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>25,784</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>2024/08/08_19</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
           <t>19</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>國泰10Y+金融債</t>
-        </is>
-      </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>00933B.TWO</t>
+          <t>元大高股息</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>17.07</t>
+          <t>0056.TW</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>36.77</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0.58%</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>17.16</t>
+          <t>0.59%</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>17.07</t>
+          <t>36.82</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>36.30</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>33,648</t>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>25,117</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>2024/08/08_20</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
           <t>20</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>台新日本半導體</t>
-        </is>
-      </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>00951.TW</t>
+          <t>中信美國公債20年</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>9.18</t>
+          <t>00795B.TWO</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>31.81</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>8.29%</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>9.41</t>
+          <t>0.90%</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>9.12</t>
+          <t>31.94</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>31.79</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>32,982</t>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>24,561</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>2024/08/08_21</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
           <t>21</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>復華富時不動產</t>
-        </is>
-      </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>00712.TW</t>
+          <t>國泰臺灣加權反1</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>9.99</t>
+          <t>00664R.TW</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>4.16</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2.54%</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>10.02</t>
+          <t>2.46%</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>4.18</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>30,465</t>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>23,143</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>2024/08/08_22</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
           <t>22</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>國泰20年美債正2</t>
-        </is>
-      </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>00688L.TW</t>
+          <t>富邦臺灣加權反1</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>8.55</t>
+          <t>00676R.TW</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0.93%</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>8.56</t>
+          <t>2.21%</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>8.54</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>27,695</t>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>22,360</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>2024/08/08_23</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
           <t>23</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>期元大S&amp;P日圓正2</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>00706L.TW</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>6.27</t>
-        </is>
-      </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>6.87</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2.96%</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>6.29</t>
+          <t>1.93%</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>6.21</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>6.81</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>27,256</t>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>22,212</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>2024/08/08_24</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
           <t>24</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>元大台灣50</t>
-        </is>
-      </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0050.TW</t>
+          <t>中信成長高股息</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>179.00</t>
+          <t>00934.TW</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>7.30</t>
+          <t>18.65</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>3.92%</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>179.45</t>
+          <t>1.11%</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>177.10</t>
+          <t>18.83</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>18.56</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>25,888</t>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>20,562</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>2024/08/08_25</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
           <t>25</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>期元大S&amp;P原油反1</t>
-        </is>
-      </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>00673R.TW</t>
+          <t>元大投資級公司債</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>7.26</t>
+          <t>00720B.TWO</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>35.83</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>7.28</t>
+          <t>0.86%</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>7.24</t>
+          <t>36.04</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>35.83</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>23,701</t>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>19,538</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>2024/08/08_26</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
           <t>26</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>復華日本龍頭</t>
-        </is>
-      </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>00949.TW</t>
+          <t>台新美A公司債20+</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>15.11</t>
+          <t>00942B.TWO</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>15.81</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>3.27%</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>15.17</t>
+          <t>0.75%</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>15.10</t>
+          <t>15.87</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>15.79</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>21,891</t>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>19,100</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>2024/08/08_27</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
           <t>27</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>國泰費城半導體</t>
-        </is>
-      </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>00830.TW</t>
+          <t>群益科技高息成長</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>47.29</t>
+          <t>00946.TW</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>9.49</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>5.80%</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>47.34</t>
+          <t>1.25%</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>46.36</t>
+          <t>9.56</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>9.42</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>21,712</t>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>19,148</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
+          <t>2024/08/08_28</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
           <t>28</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>富邦台50</t>
-        </is>
-      </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>006208.TW</t>
+          <t>台新永續高息中小</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>104.80</t>
+          <t>00936.TW</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>16.35</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>3.54%</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>105.05</t>
+          <t>1.09%</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>103.60</t>
+          <t>16.49</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>16.24</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>21,557</t>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>18,954</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>2024/08/08_29</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
           <t>29</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>中信上游半導體</t>
-        </is>
-      </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>00941.TW</t>
+          <t>元大AAA至A公司債</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>14.87</t>
+          <t>00751B.TWO</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>35.25</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>3.44%</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>14.92</t>
+          <t>0.87%</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>14.75</t>
+          <t>35.46</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>35.23</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>21,064</t>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>18,167</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
+          <t>2024/08/08_30</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
           <t>30</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>台新永續高息中小</t>
-        </is>
-      </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>00936.TW</t>
+          <t>富邦特選高股息30</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>17.37</t>
+          <t>00900.TW</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>15.10</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>1.19%</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>17.37</t>
+          <t>0.85%</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>17.17</t>
+          <t>15.23</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>15.01</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>20,760</t>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>17,051</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
+          <t>2024/08/08_31</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
           <t>31</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>統一台灣高息動能</t>
-        </is>
-      </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>00939.TW</t>
+          <t>國泰費城半導體</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>14.49</t>
+          <t>00830.TW</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>40.90</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>1.23%</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>14.49</t>
+          <t>4.84%</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>14.35</t>
+          <t>41.34</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>40.72</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>20,265</t>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>16,312</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
+          <t>2024/08/08_32</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
           <t>32</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>國泰投資級公司債</t>
-        </is>
-      </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>00725B.TWO</t>
+          <t>群益25年美債</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>37.78</t>
+          <t>00764B.TWO</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>32.64</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0.71%</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>37.94</t>
+          <t>0.91%</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>37.73</t>
+          <t>32.74</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>32.60</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>20,241</t>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>15,718</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
+          <t>2024/08/08_33</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
           <t>33</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>大華優利高填息30</t>
-        </is>
-      </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>00918.TW</t>
+          <t>富邦台50</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>23.97</t>
+          <t>006208.TW</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>99.70</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>1.64%</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>24.02</t>
+          <t>1.77%</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>23.71</t>
+          <t>100.85</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>98.90</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>19,955</t>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>14,801</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
+          <t>2024/08/08_34</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
           <t>34</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>台新美A公司債20+</t>
-        </is>
-      </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>00942B.TWO</t>
+          <t>統一美債20年</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>15.65</t>
+          <t>00931B.TWO</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>15.49</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0.82%</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>15.73</t>
+          <t>0.90%</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>15.64</t>
+          <t>15.56</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>15.49</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>19,871</t>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>14,359</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
+          <t>2024/08/08_35</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
           <t>35</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>元大AAA至A公司債</t>
-        </is>
-      </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>00751B.TWO</t>
+          <t>中信關鍵半導體</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>34.80</t>
+          <t>00891.TW</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>17.17</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0.88%</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>35.02</t>
+          <t>1.83%</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>34.78</t>
+          <t>17.35</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>16.97</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>19,618</t>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>13,483</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
+          <t>2024/08/08_36</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
           <t>36</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>群益半導體收益</t>
-        </is>
-      </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>00927.TW</t>
+          <t>凱基美國非投等債</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>19.13</t>
+          <t>00945B.TW</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>15.27</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2.50%</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>19.14</t>
+          <t>0.26%</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>18.73</t>
+          <t>15.34</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>15.26</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>19,222</t>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>13,218</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
+          <t>2024/08/08_37</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
           <t>37</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>富邦臺灣加權反1</t>
-        </is>
-      </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>00676R.TW</t>
+          <t>群益投資級金融債</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>00724B.TWO</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>35.76</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2.79%</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>0.69%</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>35.96</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>35.74</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>19,059</t>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>12,841</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
+          <t>2024/08/08_38</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
           <t>38</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>中信中國高股息</t>
-        </is>
-      </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>00882.TW</t>
+          <t>元大台灣50正2</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>11.05</t>
+          <t>00631L.TW</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>200.35</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2.47%</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>11.18</t>
+          <t>4.28%</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>11.01</t>
+          <t>205.50</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>196.85</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>19,029</t>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>12,815</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
+          <t>2024/08/08_39</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
           <t>39</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>富邦NASDAQ反1</t>
-        </is>
-      </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>00671R.TW</t>
+          <t>中信中國50正2</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>00753L.TW</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>7.14</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>4.00%</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>0.28%</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>7.17</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>6.89</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>18,994</t>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>12,753</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
+          <t>2024/08/08_40</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
           <t>40</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>元大投資級公司債</t>
-        </is>
-      </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>00720B.TWO</t>
+          <t>統一台灣高息動能</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>35.49</t>
+          <t>00939.TW</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>13.84</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0.76%</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>35.73</t>
+          <t>0.93%</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>35.47</t>
+          <t>13.95</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>13.73</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>18,153</t>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>12,486</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
+          <t>2024/08/08_41</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
           <t>41</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>元大台灣高息低波</t>
-        </is>
-      </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>00713.TW</t>
+          <t>富邦NASDAQ反1</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>57.60</t>
+          <t>00671R.TW</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>4.13</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0.86%</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>57.60</t>
+          <t>2.48%</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>57.15</t>
+          <t>4.14</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>17,346</t>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>12,246</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
+          <t>2024/08/08_42</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
           <t>42</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>國泰臺灣加權反1</t>
-        </is>
-      </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>00664R.TW</t>
+          <t>中信上游半導體</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>00941.TW</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>14.03</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>3.10%</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>2.43%</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>14.12</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>13.92</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>16,668</t>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>11,973</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
+          <t>2024/08/08_43</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
           <t>43</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>中信美國公債20年</t>
-        </is>
-      </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>00795B.TWO</t>
+          <t>復華富時不動產</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>30.64</t>
+          <t>00712.TW</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>9.75</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0.52%</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>30.67</t>
+          <t>0.51%</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>30.61</t>
+          <t>9.78</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>9.73</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>15,851</t>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>11,827</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
+          <t>2024/08/08_44</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
           <t>44</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>中信關鍵半導體</t>
-        </is>
-      </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>00891.TW</t>
+          <t>國泰投資級公司債</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>18.60</t>
+          <t>00725B.TWO</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>38.14</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>3.02%</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>18.60</t>
+          <t>0.65%</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>18.21</t>
+          <t>38.35</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>38.13</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>15,647</t>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>11,758</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
+          <t>2024/08/08_45</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
           <t>45</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>FT臺灣Smart</t>
-        </is>
-      </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>00905.TW</t>
+          <t>凱基優選高股息30</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>13.30</t>
+          <t>00915.TW</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>25.79</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2.85%</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>13.35</t>
+          <t>0.77%</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>13.16</t>
+          <t>26.05</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>25.50</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>15,003</t>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>11,701</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
+          <t>2024/08/08_46</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
           <t>46</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>群益台ESG低碳50</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>00923.TW</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>21.96</t>
-        </is>
-      </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>20.44</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>3.05%</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>22.01</t>
+          <t>1.78%</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>21.65</t>
+          <t>20.62</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>20.24</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>14,192</t>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>10,678</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
+          <t>2024/08/08_47</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
           <t>47</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>凱基A級公司債</t>
-        </is>
-      </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>00950B.TWO</t>
+          <t>台新日本半導體</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>15.03</t>
+          <t>00951.TW</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>8.67</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0.73%</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>15.11</t>
+          <t>2.91%</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>15.02</t>
+          <t>8.74</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>13,477</t>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>10,555</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
+          <t>2024/08/08_48</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
           <t>48</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>野村臺灣新科技50</t>
-        </is>
-      </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>00935.TW</t>
+          <t>元大台灣高息低波</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>21.77</t>
+          <t>00713.TW</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>55.40</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>3.20%</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>21.77</t>
+          <t>0.72%</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>21.30</t>
+          <t>55.90</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>55.00</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>12,921</t>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>10,106</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
+          <t>2024/08/08_49</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
           <t>49</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>國泰台灣領袖50</t>
-        </is>
-      </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>00922.TW</t>
+          <t>中信中國高股息</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>21.16</t>
+          <t>00882.TW</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>10.98</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>3.16%</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>21.22</t>
+          <t>0.81%</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>20.95</t>
+          <t>11.01</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>10.90</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>12,705</t>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>9,884</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
+          <t>2024/08/08_50</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
           <t>50</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>凱基美國非投等債</t>
-        </is>
-      </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>00945B.TW</t>
+          <t>大華優利高填息30</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>15.41</t>
+          <t>00918.TW</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>23.06</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0.13%</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>15.45</t>
+          <t>0.86%</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>15.39</t>
+          <t>23.22</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>22.89</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>12,367</t>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>9,449</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
+          <t>2024/08/08_51</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
           <t>51</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>統一美債20年</t>
-        </is>
-      </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>00931B.TWO</t>
+          <t>期元大S&amp;P原油反1</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>14.94</t>
+          <t>00673R.TW</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0.53%</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>14.99</t>
+          <t>2.22%</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>14.92</t>
+          <t>7.52</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>7.47</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>11,701</t>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>9,365</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
+          <t>2024/08/08_52</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
           <t>52</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>富邦上証正2</t>
-        </is>
-      </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>00633L.TW</t>
+          <t>凱基A級公司債</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>32.50</t>
+          <t>00950B.TWO</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>15.20</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>5.22%</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>33.28</t>
+          <t>0.78%</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>32.35</t>
+          <t>15.27</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>15.20</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>10,845</t>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>9,106</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
+          <t>2024/08/08_53</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
           <t>53</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>期街口布蘭特正2</t>
-        </is>
-      </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>00715L.TW</t>
+          <t>富邦臺灣加權正2</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>16.29</t>
+          <t>00675L.TW</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>80.20</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>0.25%</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>16.33</t>
+          <t>4.01%</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>16.18</t>
+          <t>82.40</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>78.90</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>10,705</t>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>8,747</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
+          <t>2024/08/08_54</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
           <t>54</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>中信高評級公司債</t>
-        </is>
-      </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>00772B.TWO</t>
+          <t>野村臺灣新科技50</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>36.11</t>
+          <t>00935.TW</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>20.42</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>0.80%</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>36.26</t>
+          <t>2.25%</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>36.10</t>
+          <t>20.67</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>20.27</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>10,269</t>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>8,427</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
+          <t>2024/08/08_55</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
           <t>55</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>元大台灣50正2</t>
-        </is>
-      </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>00631L.TW</t>
+          <t>中信高評級公司債</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>231.65</t>
+          <t>00772B.TWO</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>15.75</t>
+          <t>36.53</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>6.37%</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>232.95</t>
+          <t>0.87%</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>226.70</t>
+          <t>36.74</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>6.25</t>
+          <t>36.52</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>10,232</t>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>7,699</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
+          <t>2024/08/08_56</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
           <t>56</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>富邦越南</t>
-        </is>
-      </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>00885.TW</t>
+          <t>群益半導體收益</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>11.76</t>
+          <t>00927.TW</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>17.77</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>0.84%</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>11.79</t>
+          <t>1.93%</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>11.69</t>
+          <t>17.96</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>17.65</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>10,077</t>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>7,696</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
+          <t>2024/08/08_57</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
           <t>57</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>凱基優選高股息30</t>
-        </is>
-      </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>00915.TW</t>
+          <t>永豐20年美公債</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>26.87</t>
+          <t>00857B.TWO</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>26.99</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>0.92%</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>26.88</t>
+          <t>0.95%</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>26.58</t>
+          <t>27.08</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>26.97</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>10,019</t>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>6,929</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
+          <t>2024/08/08_58</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
           <t>58</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>富邦臺灣加權正2</t>
-        </is>
-      </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>00675L.TW</t>
+          <t>富邦全球投等債</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>92.55</t>
+          <t>00740B.TWO</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>6.45</t>
+          <t>41.31</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>6.52%</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>93.25</t>
+          <t>0.72%</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>91.00</t>
+          <t>41.59</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>41.30</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>9,246</t>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>6,833</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
+          <t>2024/08/08_59</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
           <t>59</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>群益投資級電信債</t>
-        </is>
-      </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>00722B.TWO</t>
+          <t>富邦美債20年</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>39.05</t>
+          <t>00696B.TWO</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>33.27</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>0.86%</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>39.25</t>
+          <t>0.89%</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>39.02</t>
+          <t>33.39</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>33.23</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>8,661</t>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>6,602</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
+          <t>2024/08/08_60</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
           <t>60</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>統一FANG+</t>
-        </is>
-      </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>00757.TW</t>
+          <t>國泰台灣領袖50</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>86.45</t>
+          <t>00922.TW</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>20.04</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>4.95%</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>86.60</t>
+          <t>1.47%</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>85.80</t>
+          <t>20.24</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>19.87</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>8,390</t>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>6,504</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
+          <t>2024/08/08_61</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
           <t>61</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>富邦特選高股息30</t>
-        </is>
-      </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>00900.TW</t>
+          <t>兆豐永續高息等權</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>15.89</t>
+          <t>00932.TW</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>16.62</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>1.30%</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>15.89</t>
+          <t>0.95%</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>15.74</t>
+          <t>16.76</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>16.53</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>7,891</t>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>6,466</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
+          <t>2024/08/08_62</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
           <t>62</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>群益25年美債</t>
-        </is>
-      </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>00764B.TWO</t>
+          <t>復華日本龍頭</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>31.41</t>
+          <t>00949.TW</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>14.12</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>0.57%</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>31.49</t>
+          <t>2.22%</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>31.33</t>
+          <t>14.30</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>14.09</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>7,786</t>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>5,895</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
+          <t>2024/08/08_63</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
           <t>63</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>台新臺灣IC設計</t>
-        </is>
-      </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>00947.TW</t>
+          <t>FT臺灣Smart</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>14.38</t>
+          <t>00905.TW</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>12.49</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2.11%</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>14.39</t>
+          <t>1.89%</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>14.03</t>
+          <t>12.64</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>12.31</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>7,003</t>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>5,874</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
+          <t>2024/08/08_64</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
           <t>64</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>富邦全球投等債</t>
-        </is>
-      </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>00740B.TWO</t>
+          <t>台新臺灣IC設計</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>40.91</t>
+          <t>00947.TW</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>13.08</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>0.68%</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>41.10</t>
+          <t>1.21%</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>40.90</t>
+          <t>13.23</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>12.88</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>6,941</t>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>5,829</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
+          <t>2024/08/08_65</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
           <t>65</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>國泰中國A50正2</t>
-        </is>
-      </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>00655L.TW</t>
+          <t>國泰智能電動車</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>22.08</t>
+          <t>00893.TW</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>19.37</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>5.28%</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>22.66</t>
+          <t>3.39%</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>21.96</t>
+          <t>19.48</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>19.31</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>6,751</t>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>5,602</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
+          <t>2024/08/08_66</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
           <t>66</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>國泰智能電動車</t>
-        </is>
-      </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>00893.TW</t>
+          <t>富邦越南</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>21.56</t>
+          <t>00885.TW</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>11.51</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>7.27%</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>21.59</t>
+          <t>0.44%</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>21.36</t>
+          <t>11.54</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>11.43</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>6,655</t>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>5,324</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
+          <t>2024/08/08_67</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
           <t>67</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>富邦台灣半導體</t>
-        </is>
-      </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>00892.TW</t>
+          <t>群益投資級電信債</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>16.48</t>
+          <t>00722B.TWO</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>39.49</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>3.63%</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>16.59</t>
+          <t>0.85%</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>16.20</t>
+          <t>39.72</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>39.48</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>6,229</t>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>5,256</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
+          <t>2024/08/08_68</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
           <t>68</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>富邦公司治理</t>
-        </is>
-      </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>00692.TW</t>
+          <t>中信優先金融債</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>42.17</t>
+          <t>00773B.TWO</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>38.01</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>3.35%</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>42.32</t>
+          <t>0.60%</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>41.80</t>
+          <t>38.20</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>38.00</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>6,252</t>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>4,748</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
+          <t>2024/08/08_69</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
           <t>69</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>野村趨勢動能高息</t>
-        </is>
-      </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>00944.TW</t>
+          <t>期元大S&amp;P石油</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>14.91</t>
+          <t>00642U.TW</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>17.22</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>0.73%</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>14.91</t>
+          <t>2.01%</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>14.67</t>
+          <t>17.28</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>17.19</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>6,117</t>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>4,453</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
+          <t>2024/08/08_70</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
           <t>70</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>永豐ESG低碳高息</t>
-        </is>
-      </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>00930.TW</t>
+          <t>富邦日本反1</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>19.75</t>
+          <t>00641R.TW</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>6.85</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>1.94%</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>20.00</t>
+          <t>2.24%</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>19.60</t>
+          <t>6.89</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>6.75</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>5,980</t>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>4,232</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
+          <t>2024/08/08_71</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
           <t>71</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>永豐20年美公債</t>
-        </is>
-      </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>00857B.TWO</t>
+          <t>永豐優息存股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>26.04</t>
+          <t>00907.TW</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>15.62</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>0.46%</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>26.10</t>
+          <t>1.08%</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>25.99</t>
+          <t>15.75</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>15.54</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>5,289</t>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>4,087</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
+          <t>2024/08/08_72</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
           <t>72</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>新光臺灣半導體30</t>
-        </is>
-      </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>00904.TW</t>
+          <t>元大S&amp;P500反1</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>17.94</t>
+          <t>00648R.TW</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>5.84</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>3.50%</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>18.00</t>
+          <t>1.57%</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>17.57</t>
+          <t>5.87</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>5.82</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>4,753</t>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>3,932</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
+          <t>2024/08/08_73</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
           <t>73</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>富邦深100</t>
-        </is>
-      </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>00639.TW</t>
+          <t>富邦台灣半導體</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>9.98</t>
+          <t>00892.TW</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>15.32</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>1.77%</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>10.11</t>
+          <t>1.35%</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>9.93</t>
+          <t>15.50</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>15.16</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>4,606</t>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>3,897</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
+          <t>2024/08/08_74</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
           <t>74</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>中信電池及儲能</t>
-        </is>
-      </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>00902.TW</t>
+          <t>國泰美國道瓊反1</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>9.04</t>
+          <t>00669R.TW</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>7.27</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2.80%</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>9.10</t>
+          <t>1.25%</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>8.99</t>
+          <t>7.29</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>7.26</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>4,600</t>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>3,852</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
+          <t>2024/08/08_75</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
           <t>75</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>中信中國50</t>
-        </is>
-      </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>00752.TW</t>
+          <t>中信電池及儲能</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>17.89</t>
+          <t>00902.TW</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>8.35</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>3.24%</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>18.00</t>
+          <t>2.68%</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>17.77</t>
+          <t>8.43</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>8.32</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>4,441</t>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>3,491</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
+          <t>2024/08/08_76</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
           <t>76</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>富邦美債20年</t>
-        </is>
-      </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>00696B.TWO</t>
+          <t>富邦A級公司債</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>32.09</t>
+          <t>00746B.TWO</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>37.75</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>0.50%</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>32.15</t>
+          <t>0.97%</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>32.03</t>
+          <t>38.10</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>37.74</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>4,441</t>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>3,277</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
+          <t>2024/08/08_77</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
           <t>77</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>富邦未來車</t>
-        </is>
-      </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>00895.TW</t>
+          <t>野村趨勢動能高息</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>27.38</t>
+          <t>00944.TW</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>14.35</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>6.26%</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>27.40</t>
+          <t>1.03%</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>27.05</t>
+          <t>14.46</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>14.17</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>4,207</t>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>3,269</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
+          <t>2024/08/08_78</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
           <t>78</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>群益投資級金融債</t>
-        </is>
-      </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>00724B.TWO</t>
+          <t>富邦上証正2</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>35.54</t>
+          <t>00633L.TW</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>31.31</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>0.48%</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>35.63</t>
+          <t>0.16%</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>35.54</t>
+          <t>31.58</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>30.72</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>4,055</t>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>3,257</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
+          <t>2024/08/08_79</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
           <t>79</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>元大S&amp;P500反1</t>
-        </is>
-      </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>00648R.TW</t>
+          <t>富邦公司治理</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>5.59</t>
+          <t>00692.TW</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>40.14</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2.01%</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>5.62</t>
+          <t>1.71%</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>5.58</t>
+          <t>40.58</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>39.82</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>4,042</t>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>3,075</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
+          <t>2024/08/08_80</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
           <t>80</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>富邦NASDAQ</t>
-        </is>
-      </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>00662.TW</t>
+          <t>中信中國50</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>80.20</t>
+          <t>00752.TW</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>17.92</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>3.89%</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>80.20</t>
+          <t>0.28%</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>79.70</t>
+          <t>17.94</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>17.59</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>3,507</t>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>2,912</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
+          <t>2024/08/08_81</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
           <t>81</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>新光投等債15+</t>
-        </is>
-      </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>00775B.TW</t>
+          <t>富邦臺灣中小</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>34.86</t>
+          <t>00733.TW</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>50.50</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>0.91%</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>34.89</t>
+          <t>1.37%</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>34.80</t>
+          <t>51.35</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>50.20</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>3,449</t>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>2,625</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
+          <t>2024/08/08_82</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
           <t>82</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>富邦科技</t>
-        </is>
-      </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>0052.TW</t>
+          <t>富邦日本正2</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>174.55</t>
+          <t>00640L.TW</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>8.55</t>
+          <t>43.74</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>4.67%</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>175.30</t>
+          <t>4.91%</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>173.30</t>
+          <t>44.98</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>43.25</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>3,418</t>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>2,558</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
+          <t>2024/08/08_83</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
           <t>83</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>中信小資高價30</t>
-        </is>
-      </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>00894.TW</t>
+          <t>富邦未來車</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>20.51</t>
+          <t>00895.TW</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>25.10</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>3.30%</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>20.62</t>
+          <t>3.28%</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>20.22</t>
+          <t>25.24</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>25.02</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>3,349</t>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>2,556</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
+          <t>2024/08/08_84</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
           <t>84</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>中信上櫃ESG30</t>
-        </is>
-      </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>00928.TWO</t>
+          <t>群益臺灣加權正2</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>16.49</t>
+          <t>00685L.TW</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>71.40</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>0.90%</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>16.55</t>
+          <t>4.10%</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>16.15</t>
+          <t>73.40</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>70.25</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>3,329</t>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>2,402</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
+          <t>2024/08/08_85</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
           <t>85</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>富邦NASDAQ正2</t>
-        </is>
-      </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>00670L.TW</t>
+          <t>中信上櫃ESG30</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>116.10</t>
+          <t>00928.TWO</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>10.45</t>
+          <t>15.56</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>8.26%</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>116.10</t>
+          <t>0.19%</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>115.00</t>
+          <t>15.74</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>15.38</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>3,154</t>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>2,372</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
+          <t>2024/08/08_86</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
           <t>86</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>兆豐永續高息等權</t>
-        </is>
-      </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>00932.TW</t>
+          <t>永豐台灣ESG</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>17.60</t>
+          <t>00888.TWO</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>15.85</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>0.96%</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>17.60</t>
+          <t>1.55%</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>17.34</t>
+          <t>16.03</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
+          <t>15.77</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
           <t>0.26</t>
         </is>
       </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>3,060</t>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>2,305</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
+          <t>2024/08/08_87</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
           <t>87</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="C89" t="inlineStr">
         <is>
           <t>復華中國5G</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="D89" t="inlineStr">
         <is>
           <t>00877.TWO</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>11.04</t>
-        </is>
-      </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>10.45</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>3.66%</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>11.20</t>
+          <t>1.14%</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>10.94</t>
+          <t>10.52</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>10.31</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>3,036</t>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>2,210</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
+          <t>2024/08/08_88</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
           <t>88</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>富邦臺灣中小</t>
-        </is>
-      </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>00733.TW</t>
+          <t>復華S&amp;P500成長</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>56.40</t>
+          <t>00924.TW</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>20.84</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2.84%</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>56.95</t>
+          <t>2.16%</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>55.35</t>
+          <t>20.95</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>20.83</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>2,988</t>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>2,203</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
+          <t>2024/08/08_89</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
           <t>89</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>國泰基因免疫革命</t>
-        </is>
-      </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>00898.TW</t>
+          <t>統一FANG+</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>7.80</t>
+          <t>00757.TW</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>79.35</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2.36%</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>7.81</t>
+          <t>3.70%</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>7.76</t>
+          <t>79.90</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>79.00</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>2,938</t>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>2,151</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
+          <t>2024/08/08_90</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
           <t>90</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>富邦日本反1</t>
-        </is>
-      </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>00641R.TW</t>
+          <t>永豐ESG低碳高息</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>6.44</t>
+          <t>00930.TW</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>18.53</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>3.70%</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>6.46</t>
+          <t>1.33%</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>6.34</t>
+          <t>18.68</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>18.36</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>2,935</t>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>2,147</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
+          <t>2024/08/08_91</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
           <t>91</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>期元大S&amp;P黃金正2</t>
-        </is>
-      </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>00708L.TW</t>
+          <t>富邦NASDAQ正2</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>34.01</t>
+          <t>00670L.TW</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>102.35</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2.33%</t>
+          <t>4.85</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>34.22</t>
+          <t>4.52%</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>33.46</t>
+          <t>103.40</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>101.35</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>2,867</t>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>2,110</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
+          <t>2024/08/08_92</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
           <t>92</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>元大美債1-3</t>
-        </is>
-      </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>00719B.TWO</t>
+          <t>富邦科技</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>32.06</t>
+          <t>0052.TW</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>165.65</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>32.10</t>
+          <t>2.30%</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>32.02</t>
+          <t>167.00</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>163.80</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>2,723</t>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>2,029</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
+          <t>2024/08/08_93</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
           <t>93</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>群益深証中小</t>
-        </is>
-      </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>00643.TW</t>
+          <t>群益臺灣加權反1</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>11.23</t>
+          <t>00686R.TW</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>1.06%</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>11.23</t>
+          <t>1.62%</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>11.10</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>2,525</t>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>1,987</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
+          <t>2024/08/08_94</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
           <t>94</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>富邦A級公司債</t>
-        </is>
-      </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>00746B.TWO</t>
+          <t>元大S&amp;P500</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>37.32</t>
+          <t>00646.TW</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>52.85</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>0.69%</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>37.38</t>
+          <t>1.86%</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>37.31</t>
+          <t>53.05</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>52.80</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>2,438</t>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>1,964</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
+          <t>2024/08/08_95</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
           <t>95</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>元大臺灣ESG永續</t>
-        </is>
-      </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>00850.TW</t>
+          <t>富邦NASDAQ</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>44.51</t>
+          <t>00662.TW</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>75.10</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2.60%</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>44.51</t>
+          <t>2.53%</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>44.00</t>
+          <t>75.50</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>74.95</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>2,441</t>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>1,864</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
+          <t>2024/08/08_96</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
           <t>96</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>富邦日本正2</t>
-        </is>
-      </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>00640L.TW</t>
+          <t>中信小資高價30</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>56.15</t>
+          <t>00894.TW</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>19.24</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>8.10%</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>57.35</t>
+          <t>1.48%</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>55.80</t>
+          <t>19.44</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>19.03</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>2,419</t>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>1,787</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
+          <t>2024/08/08_97</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
           <t>97</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>國泰美國道瓊反1</t>
-        </is>
-      </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>00669R.TW</t>
+          <t>元大臺灣ESG永續</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>7.06</t>
+          <t>00850.TW</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>42.02</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>0.86%</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>7.07</t>
+          <t>1.62%</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>7.05</t>
+          <t>42.47</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>41.65</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>2,405</t>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>1,708</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
+          <t>2024/08/08_98</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
           <t>98</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>群益臺灣加權反1</t>
-        </is>
-      </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>00686R.TW</t>
+          <t>中信臺灣智慧50</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>00912.TW</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>17.87</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>3.03%</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>1.33%</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>18.01</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>17.76</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>2,359</t>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>1,517</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
+          <t>2024/08/08_99</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
           <t>99</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>國泰中國A50</t>
-        </is>
-      </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>00636.TW</t>
+          <t>兆豐藍籌30</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>20.46</t>
+          <t>00690.TW</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>32.70</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2.25%</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>20.78</t>
+          <t>1.33%</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>20.39</t>
+          <t>33.00</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>32.47</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>2,195</t>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>1,487</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
+          <t>2024/08/08_100</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
           <t>100</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>永豐台灣ESG</t>
-        </is>
-      </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>00888.TWO</t>
+          <t>國泰中國A50正2</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>16.61</t>
+          <t>00655L.TW</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>21.25</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2.52%</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>16.61</t>
+          <t>0.38%</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>16.39</t>
+          <t>21.46</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>20.86</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>2,173</t>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>1,484</t>
         </is>
       </c>
     </row>

--- a/成交量.xlsx
+++ b/成交量.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:K102"/>
+  <dimension ref="A2:I102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,55 +436,45 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>股名</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>名次</t>
+          <t>股號</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>股名</t>
+          <t>股價</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>股號</t>
+          <t>漲跌</t>
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>股價</t>
+          <t>漲跌幅(%)</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>漲跌</t>
+          <t>最高</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>漲跌幅(%)</t>
+          <t>最低</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
-          <t>最高</t>
+          <t>價差</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t>最低</t>
-        </is>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t>價差</t>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr">
         <is>
           <t>成交量</t>
         </is>
@@ -493,5700 +483,4700 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024/08/08_1</t>
+          <t>元大台灣50反1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>00632R.TW</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>元大台灣50反1</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>00632R.TW</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>0.29%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.94%</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>364,926</t>
+          <t>236,557</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024/08/08_2</t>
+          <t>國泰20年美債</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>00687B.TWO</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>群益ESG投等債20+</t>
+          <t>32.87</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>00937B.TWO</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>16.10</t>
+          <t>0.55%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>32.96</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.80%</t>
+          <t>32.78</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>16.19</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>16.08</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>202,464</t>
+          <t>178,081</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024/08/08_3</t>
+          <t>元大美債20年</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>00679B.TWO</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>復華台灣科技優息</t>
+          <t>31.70</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>00929.TW</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>18.67</t>
+          <t>0.79%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>31.76</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.37%</t>
+          <t>31.59</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>18.85</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>18.55</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>148,201</t>
+          <t>160,784</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024/08/08_4</t>
+          <t>元大美債20正2</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>00680L.TW</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>元大美債20年</t>
+          <t>9.63</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>00679B.TWO</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>31.26</t>
+          <t>0.42%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>9.65</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.82%</t>
+          <t>9.56</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>31.36</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>31.23</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>133,733</t>
+          <t>153,144</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2024/08/08_5</t>
+          <t>群益ESG投等債20+</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>00937B.TWO</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>元大美債20正2</t>
+          <t>16.35</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>00680L.TW</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>9.35</t>
+          <t>0.80%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>16.35</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.74%</t>
+          <t>16.27</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>9.36</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>9.28</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>124,994</t>
+          <t>146,241</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024/08/08_6</t>
+          <t>國泰永續高股息</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>00878.TW</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>國泰永續高股息</t>
+          <t>23.13</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>00878.TW</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>22.10</t>
+          <t>0.56%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>23.40</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.21%</t>
+          <t>23.12</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>22.29</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>21.94</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>110,668</t>
+          <t>133,914</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024/08/08_7</t>
+          <t>富邦特選高股息30</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>00900.TW</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>元大台灣價值高息</t>
+          <t>15.79</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>00940.TW</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>9.24</t>
+          <t>0.32%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>16.04</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.96%</t>
+          <t>15.79</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>9.31</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>9.15</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>86,905</t>
+          <t>110,024</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024/08/08_8</t>
+          <t>復華台灣科技優息</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>00929.TW</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>國泰20年美債</t>
+          <t>19.42</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>00687B.TWO</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>32.50</t>
+          <t>0.46%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>19.57</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.85%</t>
+          <t>19.41</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>32.63</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>32.47</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>70,192</t>
+          <t>102,167</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2024/08/08_9</t>
+          <t>國泰20年美債正2</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>00688L.TW</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>國泰20年美債正2</t>
+          <t>9.56</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>00688L.TW</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>9.32</t>
+          <t>0.84%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>9.57</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.75%</t>
+          <t>9.49</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>9.32</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>9.25</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>67,915</t>
+          <t>89,358</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2024/08/08_10</t>
+          <t>元大滬深300正2</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>00637L.TW</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>群益台灣精選高息</t>
+          <t>12.65</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>00919.TW</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>23.27</t>
+          <t>2.18%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>12.80</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1.27%</t>
+          <t>12.30</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>23.49</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>23.14</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>50,544</t>
+          <t>58,090</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2024/08/08_11</t>
+          <t>中信美國公債20年</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>00795B.TWO</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>期街口布蘭特正2</t>
+          <t>32.09</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>00715L.TW</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>14.87</t>
+          <t>0.60%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>32.15</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>3.12%</t>
+          <t>32.03</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>14.99</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>14.82</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>49,644</t>
+          <t>56,144</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2024/08/08_12</t>
+          <t>國泰台灣5G+</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>00881.TW</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>富邦恒生國企正2</t>
+          <t>23.92</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>00665L.TW</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>6.04</t>
+          <t>0.87%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>24.19</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.17%</t>
+          <t>23.92</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>6.06</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>5.80</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>48,265</t>
+          <t>54,305</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2024/08/08_13</t>
+          <t>中信優息投資級債</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>00948B.TWO</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中信優息投資級債</t>
+          <t>10.37</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>00948B.TWO</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>10.21</t>
+          <t>0.68%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>10.38</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.78%</t>
+          <t>10.34</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>10.28</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>10.21</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>46,889</t>
+          <t>45,382</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2024/08/08_14</t>
+          <t>富邦恒生國企正2</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>00665L.TW</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>元大滬深300正2</t>
+          <t>6.11</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>00637L.TW</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12.56</t>
+          <t>0.83%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>6.24</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.40%</t>
+          <t>5.96</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>12.69</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>12.37</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>0.32</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>39,869</t>
+          <t>44,487</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2024/08/08_15</t>
+          <t>元大台灣價值高息</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>00940.TW</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>國泰台灣5G+</t>
+          <t>9.61</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>00881.TW</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>22.50</t>
+          <t>0.31%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>9.69</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2.22%</t>
+          <t>9.60</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>22.78</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>22.33</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>35,422</t>
+          <t>42,126</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2024/08/08_16</t>
+          <t>期街口布蘭特正2</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>00715L.TW</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>復華香港正2</t>
+          <t>15.28</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>00650L.TW</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>9.22</t>
+          <t>2.98%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>15.36</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.44%</t>
+          <t>15.19</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>9.23</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>8.85</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>30,962</t>
+          <t>31,467</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2024/08/08_17</t>
+          <t>期元大S&amp;P日圓正2</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>00706L.TW</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>國泰10Y+金融債</t>
+          <t>6.79</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>00933B.TWO</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>17.20</t>
+          <t>0.29%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>6.79</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.64%</t>
+          <t>6.73</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>17.30</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>17.19</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>30,657</t>
+          <t>28,268</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2024/08/08_18</t>
+          <t>群益台灣精選高息</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>00919.TW</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>元大台灣50</t>
+          <t>24.34</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0050.TW</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>170.55</t>
+          <t>0.33%</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>24.52</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2.07%</t>
+          <t>24.30</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>172.40</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>169.00</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>25,784</t>
+          <t>26,705</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2024/08/08_19</t>
+          <t>復華香港正2</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>00650L.TW</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>元大高股息</t>
+          <t>9.30</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0056.TW</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>36.77</t>
+          <t>0.54%</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>9.49</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.59%</t>
+          <t>9.08</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>36.82</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>36.30</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>25,117</t>
+          <t>24,847</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2024/08/08_20</t>
+          <t>國泰10Y+金融債</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>00933B.TWO</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>中信美國公債20年</t>
+          <t>17.44</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>00795B.TWO</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>31.81</t>
+          <t>0.69%</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>17.46</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.90%</t>
+          <t>17.36</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>31.94</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>31.79</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>24,561</t>
+          <t>24,747</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2024/08/08_21</t>
+          <t>台新永續高息中小</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>00936.TW</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>國泰臺灣加權反1</t>
+          <t>16.72</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>00664R.TW</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>4.16</t>
+          <t>0.30%</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>16.85</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2.46%</t>
+          <t>16.72</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>4.18</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>23,143</t>
+          <t>17,686</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2024/08/08_22</t>
+          <t>群益25年美債</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>00764B.TWO</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>富邦臺灣加權反1</t>
+          <t>32.99</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>00676R.TW</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>0.70%</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>33.05</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2.21%</t>
+          <t>32.89</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2.28</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>22,360</t>
+          <t>17,121</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2024/08/08_23</t>
+          <t>期元大S&amp;P原油反1</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>00673R.TW</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>期元大S&amp;P日圓正2</t>
+          <t>7.31</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>00706L.TW</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>6.87</t>
+          <t>1.67%</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>7.32</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>1.93%</t>
+          <t>7.27</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>6.81</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>22,212</t>
+          <t>17,013</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2024/08/08_24</t>
+          <t>凱基美國非投等債</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>00945B.TW</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>中信成長高股息</t>
+          <t>15.28</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>00934.TW</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>18.65</t>
+          <t>0.07%</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>15.30</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>1.11%</t>
+          <t>15.25</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>18.83</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>18.56</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>20,562</t>
+          <t>16,528</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2024/08/08_25</t>
+          <t>中信成長高股息</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>00934.TW</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>元大投資級公司債</t>
+          <t>19.49</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>00720B.TWO</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>35.83</t>
+          <t>0.51%</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>19.65</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.86%</t>
+          <t>19.48</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>36.04</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>35.83</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>19,538</t>
+          <t>16,555</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2024/08/08_26</t>
+          <t>元大投資級公司債</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>00720B.TWO</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>台新美A公司債20+</t>
+          <t>36.48</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>00942B.TWO</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>15.81</t>
+          <t>0.94%</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>36.48</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.75%</t>
+          <t>36.34</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>15.87</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>15.79</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>19,100</t>
+          <t>15,945</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2024/08/08_27</t>
+          <t>元大高股息</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>0056.TW</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>群益科技高息成長</t>
+          <t>38.17</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>00946.TW</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>9.49</t>
+          <t>0.50%</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>38.56</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>1.25%</t>
+          <t>38.16</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>9.56</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>9.42</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>19,148</t>
+          <t>15,752</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2024/08/08_28</t>
+          <t>富邦NASDAQ反1</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>00671R.TW</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>台新永續高息中小</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>00936.TW</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>16.35</t>
+          <t>0.26%</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>1.09%</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>16.49</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>16.24</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>18,954</t>
+          <t>14,090</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2024/08/08_29</t>
+          <t>統一美債20年</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>00931B.TWO</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>元大AAA至A公司債</t>
+          <t>15.66</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>00751B.TWO</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>35.25</t>
+          <t>0.64%</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>15.67</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.87%</t>
+          <t>15.61</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>35.46</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>35.23</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>18,167</t>
+          <t>12,788</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2024/08/08_30</t>
+          <t>中信中國50正2</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>00753L.TW</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>富邦特選高股息30</t>
+          <t>7.18</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>00900.TW</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>15.10</t>
+          <t>0.56%</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>7.27</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.85%</t>
+          <t>7.05</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>15.23</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>15.01</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>17,051</t>
+          <t>12,102</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2024/08/08_31</t>
+          <t>台新美A公司債20+</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>00942B.TWO</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>國泰費城半導體</t>
+          <t>16.09</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>00830.TW</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>40.90</t>
+          <t>0.94%</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>16.10</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>4.84%</t>
+          <t>16.04</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>41.34</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>40.72</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>16,312</t>
+          <t>12,017</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2024/08/08_32</t>
+          <t>元大台灣50</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>0050.TW</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>群益25年美債</t>
+          <t>179.35</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>00764B.TWO</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>32.64</t>
+          <t>0.77%</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>181.00</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0.91%</t>
+          <t>179.05</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>32.74</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>32.60</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>15,718</t>
+          <t>11,455</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2024/08/08_33</t>
+          <t>統一台灣高息動能</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>00939.TW</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>富邦台50</t>
+          <t>14.42</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>006208.TW</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>99.70</t>
+          <t>0.62%</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>14.57</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>1.77%</t>
+          <t>14.41</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>100.85</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>98.90</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>14,801</t>
+          <t>10,851</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2024/08/08_34</t>
+          <t>群益科技高息成長</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>00946.TW</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>統一美債20年</t>
+          <t>9.88</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>00931B.TWO</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>15.49</t>
+          <t>0.50%</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>9.97</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0.90%</t>
+          <t>9.87</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>15.56</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>15.49</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>14,359</t>
+          <t>10,770</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2024/08/08_35</t>
+          <t>群益投資級金融債</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>00724B.TWO</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>中信關鍵半導體</t>
+          <t>36.23</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>00891.TW</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>17.17</t>
+          <t>0.72%</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>36.24</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>1.83%</t>
+          <t>36.14</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>17.35</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>16.97</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>13,483</t>
+          <t>10,425</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2024/08/08_36</t>
+          <t>元大AAA至A公司債</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>00751B.TWO</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>凱基美國非投等債</t>
+          <t>35.88</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>00945B.TW</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>15.27</t>
+          <t>1.01%</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>35.88</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0.26%</t>
+          <t>35.72</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>15.34</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>15.26</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>13,218</t>
+          <t>10,358</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2024/08/08_37</t>
+          <t>兆豐永續高息等權</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>00932.TW</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>群益投資級金融債</t>
+          <t>17.27</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>00724B.TWO</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>35.76</t>
+          <t>0.17%</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>17.44</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0.69%</t>
+          <t>17.25</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>35.96</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>35.74</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>12,841</t>
+          <t>9,921</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2024/08/08_38</t>
+          <t>群益台ESG低碳50</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>00923.TW</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>元大台灣50正2</t>
+          <t>21.61</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>00631L.TW</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>200.35</t>
+          <t>0.73%</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>21.82</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>4.28%</t>
+          <t>21.60</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>205.50</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>196.85</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>8.65</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>12,815</t>
+          <t>9,773</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2024/08/08_39</t>
+          <t>國泰臺灣加權反1</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>00664R.TW</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>中信中國50正2</t>
+          <t>3.94</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>00753L.TW</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>7.14</t>
+          <t>0.25%</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>3.94</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0.28%</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>7.17</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>6.89</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>12,753</t>
+          <t>9,468</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2024/08/08_40</t>
+          <t>凱基A級公司債</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>00950B.TWO</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>統一台灣高息動能</t>
+          <t>15.38</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>00939.TW</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>13.84</t>
+          <t>0.72%</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>15.39</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>0.93%</t>
+          <t>15.32</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>13.95</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>13.73</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>12,486</t>
+          <t>9,257</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2024/08/08_41</t>
+          <t>中信中國高股息</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>00882.TW</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>富邦NASDAQ反1</t>
+          <t>11.02</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>00671R.TW</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>4.13</t>
+          <t>0.46%</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>11.08</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2.48%</t>
+          <t>10.92</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>4.14</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>12,246</t>
+          <t>9,129</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2024/08/08_42</t>
+          <t>凱基優選高股息30</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>00915.TW</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>中信上游半導體</t>
+          <t>26.83</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>00941.TW</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>14.03</t>
+          <t>0.67%</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>27.11</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2.43%</t>
+          <t>26.83</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>14.12</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>13.92</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>11,973</t>
+          <t>9,079</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2024/08/08_43</t>
+          <t>復華富時不動產</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>00712.TW</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>復華富時不動產</t>
+          <t>9.78</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>00712.TW</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>9.75</t>
+          <t>0.51%</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>9.78</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0.51%</t>
+          <t>9.74</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>9.78</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>9.73</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>11,827</t>
+          <t>8,686</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2024/08/08_44</t>
+          <t>台新日本半導體</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>00951.TW</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>國泰投資級公司債</t>
+          <t>9.13</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>00725B.TWO</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>38.14</t>
+          <t>2.13%</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>9.18</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>0.65%</t>
+          <t>9.05</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>38.35</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>38.13</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>11,758</t>
+          <t>8,644</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2024/08/08_45</t>
+          <t>元大台灣高息低波</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>00713.TW</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>凱基優選高股息30</t>
+          <t>57.20</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>00915.TW</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>25.79</t>
+          <t>0.44%</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>57.70</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>0.77%</t>
+          <t>57.15</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>26.05</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>25.50</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>11,701</t>
+          <t>8,602</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2024/08/08_46</t>
+          <t>富邦全球投等債</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>00740B.TWO</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>群益台ESG低碳50</t>
+          <t>41.84</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>00923.TW</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>20.44</t>
+          <t>0.75%</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>41.88</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>1.78%</t>
+          <t>41.60</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>20.62</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>20.24</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>10,678</t>
+          <t>8,580</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2024/08/08_47</t>
+          <t>中信關鍵半導體</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>00891.TW</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>台新日本半導體</t>
+          <t>18.26</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>00951.TW</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>8.67</t>
+          <t>0.60%</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>18.41</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2.91%</t>
+          <t>18.20</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>8.74</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>8.50</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>10,555</t>
+          <t>8,377</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2024/08/08_48</t>
+          <t>富邦臺灣加權反1</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>00676R.TW</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>元大台灣高息低波</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>00713.TW</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>55.40</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>0.72%</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>55.90</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>55.00</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>10,106</t>
+          <t>7,257</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2024/08/08_49</t>
+          <t>富邦上証正2</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>00633L.TW</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>中信中國高股息</t>
+          <t>31.53</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>00882.TW</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10.98</t>
+          <t>2.24%</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>31.87</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>0.81%</t>
+          <t>30.62</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>11.01</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>10.90</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>9,884</t>
+          <t>7,025</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2024/08/08_50</t>
+          <t>富邦台50</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>006208.TW</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>大華優利高填息30</t>
+          <t>105.05</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>00918.TW</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>23.06</t>
+          <t>0.57%</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>105.85</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>0.86%</t>
+          <t>104.85</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>23.22</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>22.89</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>9,449</t>
+          <t>6,973</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2024/08/08_51</t>
+          <t>國泰費城半導體</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>00830.TW</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>期元大S&amp;P原油反1</t>
+          <t>45.19</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>00673R.TW</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>0.24%</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>45.31</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2.22%</t>
+          <t>44.92</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>7.52</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>7.47</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>9,365</t>
+          <t>6,049</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2024/08/08_52</t>
+          <t>中信高評級公司債</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>00772B.TWO</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>凱基A級公司債</t>
+          <t>37.08</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>00950B.TWO</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>15.20</t>
+          <t>0.82%</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>37.09</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>0.78%</t>
+          <t>36.96</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>15.27</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>15.20</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>9,106</t>
+          <t>5,946</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2024/08/08_53</t>
+          <t>富邦美債20年</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>00696B.TWO</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>富邦臺灣加權正2</t>
+          <t>33.59</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>00675L.TW</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>80.20</t>
+          <t>0.66%</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>33.60</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>4.01%</t>
+          <t>33.50</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>82.40</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>78.90</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>8,747</t>
+          <t>5,900</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2024/08/08_54</t>
+          <t>國泰投資級公司債</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>00725B.TWO</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>野村臺灣新科技50</t>
+          <t>38.64</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>00935.TW</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>20.42</t>
+          <t>0.68%</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>38.65</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2.25%</t>
+          <t>38.52</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>20.67</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>20.27</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>8,427</t>
+          <t>5,856</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2024/08/08_55</t>
+          <t>大華優利高填息30</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>00918.TW</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>中信高評級公司債</t>
+          <t>24.16</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>00772B.TWO</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>36.53</t>
+          <t>0.29%</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>24.37</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>0.87%</t>
+          <t>24.15</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>36.74</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>36.52</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>7,699</t>
+          <t>5,367</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2024/08/08_56</t>
+          <t>野村臺灣新科技50</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>00935.TW</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>群益半導體收益</t>
+          <t>21.59</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>00927.TW</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>17.77</t>
+          <t>0.51%</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>21.74</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>1.93%</t>
+          <t>21.53</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>17.96</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>17.65</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>7,696</t>
+          <t>5,053</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2024/08/08_57</t>
+          <t>元大台灣50正2</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>00631L.TW</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>永豐20年美公債</t>
+          <t>221.20</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>00857B.TWO</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>26.99</t>
+          <t>0.87%</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>225.50</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>0.95%</t>
+          <t>220.85</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>27.08</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>26.97</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>6,929</t>
+          <t>4,926</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2024/08/08_58</t>
+          <t>永豐20年美公債</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>00857B.TWO</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>富邦全球投等債</t>
+          <t>27.25</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>00740B.TWO</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>41.31</t>
+          <t>0.55%</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>27.28</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>0.72%</t>
+          <t>27.19</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>41.59</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>41.30</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>6,833</t>
+          <t>4,792</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2024/08/08_59</t>
+          <t>台新臺灣IC設計</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>00947.TW</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>富邦美債20年</t>
+          <t>13.92</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>00696B.TWO</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>33.27</t>
+          <t>0.22%</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>14.09</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>0.89%</t>
+          <t>13.85</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>33.39</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>33.23</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>6,602</t>
+          <t>4,521</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2024/08/08_60</t>
+          <t>群益投資級電信債</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>00722B.TWO</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>國泰台灣領袖50</t>
+          <t>40.17</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>00922.TW</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>20.04</t>
+          <t>0.98%</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>40.18</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>1.47%</t>
+          <t>40.05</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>20.24</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>19.87</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>6,504</t>
+          <t>4,450</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2024/08/08_61</t>
+          <t>中信優先金融債</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>00773B.TWO</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>兆豐永續高息等權</t>
+          <t>38.62</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>00932.TW</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>16.62</t>
+          <t>0.84%</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>38.62</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>0.95%</t>
+          <t>38.53</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>16.76</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>16.53</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>6,466</t>
+          <t>4,439</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2024/08/08_62</t>
+          <t>富邦越南</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>00885.TW</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>復華日本龍頭</t>
+          <t>11.48</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>00949.TW</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>14.12</t>
+          <t>0.09%</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>11.53</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2.22%</t>
+          <t>11.48</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>14.30</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>14.09</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>5,895</t>
+          <t>4,204</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2024/08/08_63</t>
+          <t>群益半導體收益</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>00927.TW</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>FT臺灣Smart</t>
+          <t>18.72</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>00905.TW</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>12.49</t>
+          <t>0.79%</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>18.90</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>1.89%</t>
+          <t>18.70</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>12.64</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>12.31</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>5,874</t>
+          <t>4,125</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2024/08/08_64</t>
+          <t>永豐優息存股</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>00907.TW</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>台新臺灣IC設計</t>
+          <t>16.05</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>00947.TW</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>13.08</t>
+          <t>0.37%</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>16.24</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>1.21%</t>
+          <t>16.05</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>13.23</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>12.88</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>5,829</t>
+          <t>4,115</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2024/08/08_65</t>
+          <t>中信上游半導體</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>00941.TW</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>國泰智能電動車</t>
+          <t>14.55</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>00893.TW</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>19.37</t>
+          <t>0.48%</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>14.60</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>3.39%</t>
+          <t>14.51</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>19.48</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>19.31</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>5,602</t>
+          <t>3,881</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2024/08/08_66</t>
+          <t>富邦臺灣加權正2</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>00675L.TW</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>富邦越南</t>
+          <t>88.60</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>00885.TW</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11.51</t>
+          <t>0.78%</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>90.20</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>0.44%</t>
+          <t>88.35</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>11.54</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>11.43</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>5,324</t>
+          <t>3,675</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2024/08/08_67</t>
+          <t>復華日本龍頭</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>00949.TW</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>群益投資級電信債</t>
+          <t>14.71</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>00722B.TWO</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>39.49</t>
+          <t>0.75%</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>14.80</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>0.85%</t>
+          <t>14.66</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>39.72</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>39.48</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>5,256</t>
+          <t>3,613</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2024/08/08_68</t>
+          <t>國泰中國A50正2</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>00655L.TW</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>中信優先金融債</t>
+          <t>21.46</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>00773B.TWO</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>38.01</t>
+          <t>2.24%</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>21.70</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>0.60%</t>
+          <t>20.81</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>38.20</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>38.00</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>4,748</t>
+          <t>3,244</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2024/08/08_69</t>
+          <t>富邦A級公司債</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>00746B.TWO</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>期元大S&amp;P石油</t>
+          <t>38.22</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>00642U.TW</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>17.22</t>
+          <t>0.68%</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>38.22</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2.01%</t>
+          <t>38.12</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>17.28</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>17.19</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>4,453</t>
+          <t>2,988</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2024/08/08_70</t>
+          <t>FT臺灣Smart</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>00905.TW</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>富邦日本反1</t>
+          <t>13.17</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>00641R.TW</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>6.85</t>
+          <t>0.38%</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>13.28</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2.24%</t>
+          <t>13.17</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>6.89</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>6.75</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>4,232</t>
+          <t>2,960</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2024/08/08_71</t>
+          <t>期元大S&amp;P石油</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>00642U.TW</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>永豐優息存股</t>
+          <t>17.52</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>00907.TW</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>15.62</t>
+          <t>1.74%</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>17.57</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>1.08%</t>
+          <t>17.48</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>15.75</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>15.54</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>4,087</t>
+          <t>2,853</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2024/08/08_72</t>
+          <t>復華富時高息低波</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>00731.TW</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>元大S&amp;P500反1</t>
+          <t>76.40</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>00648R.TW</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>5.84</t>
+          <t>1.16%</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>77.45</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>1.57%</t>
+          <t>76.30</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>5.87</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>5.82</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>3,932</t>
+          <t>2,768</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2024/08/08_73</t>
+          <t>元大美債1-3</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>00719B.TWO</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>富邦台灣半導體</t>
+          <t>31.91</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>00892.TW</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>15.32</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>31.95</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>1.35%</t>
+          <t>31.88</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>15.50</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>15.16</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>3,897</t>
+          <t>2,736</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2024/08/08_74</t>
+          <t>國泰台灣領袖50</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>00922.TW</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>國泰美國道瓊反1</t>
+          <t>21.11</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>00669R.TW</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>7.27</t>
+          <t>0.66%</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>21.33</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>1.25%</t>
+          <t>21.10</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>7.29</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>7.26</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>3,852</t>
+          <t>2,599</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2024/08/08_75</t>
+          <t>富邦台灣半導體</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>00892.TW</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>中信電池及儲能</t>
+          <t>16.48</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>00902.TW</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>8.35</t>
+          <t>0.06%</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>16.64</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2.68%</t>
+          <t>16.40</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>8.43</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>8.32</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>3,491</t>
+          <t>2,586</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2024/08/08_76</t>
+          <t>中信中國50</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>00752.TW</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>富邦A級公司債</t>
+          <t>17.91</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>00746B.TWO</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>37.75</t>
+          <t>0.06%</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>18.08</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>0.97%</t>
+          <t>17.78</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>38.10</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>37.74</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>3,277</t>
+          <t>2,548</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2024/08/08_77</t>
+          <t>元大10年IG醫療債</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>00787B.TWO</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>野村趨勢動能高息</t>
+          <t>35.99</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>00944.TW</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>14.35</t>
+          <t>0.62%</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>36.04</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>1.03%</t>
+          <t>35.91</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>14.46</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>14.17</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>3,269</t>
+          <t>2,466</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2024/08/08_78</t>
+          <t>群益臺灣加權反1</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>00686R.TW</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>富邦上証正2</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>00633L.TW</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>31.31</t>
+          <t>0.42%</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>0.16%</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>31.58</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>30.72</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>3,257</t>
+          <t>2,087</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2024/08/08_79</t>
+          <t>兆豐藍籌30</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>00690.TW</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>富邦公司治理</t>
+          <t>34.48</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>00692.TW</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>40.14</t>
+          <t>0.61%</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>34.73</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>1.71%</t>
+          <t>34.48</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>40.58</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>39.82</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>3,075</t>
+          <t>2,092</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2024/08/08_80</t>
+          <t>野村趨勢動能高息</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>00944.TW</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>中信中國50</t>
+          <t>14.87</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>00752.TW</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>17.92</t>
+          <t>0.34%</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>14.97</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>0.28%</t>
+          <t>14.83</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>17.94</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>17.59</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>2,912</t>
+          <t>1,975</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2024/08/08_81</t>
+          <t>統一FANG+</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>00757.TW</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>富邦臺灣中小</t>
+          <t>84.95</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>00733.TW</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>50.50</t>
+          <t>0.12%</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>85.10</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>1.37%</t>
+          <t>84.60</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>51.35</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>50.20</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>2,625</t>
+          <t>1,726</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2024/08/08_82</t>
+          <t>中信小資高價30</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>00894.TW</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>富邦日本正2</t>
+          <t>20.56</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>00640L.TW</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>43.74</t>
+          <t>0.10%</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>20.67</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>4.91%</t>
+          <t>20.48</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>44.98</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>43.25</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>2,558</t>
+          <t>1,711</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2024/08/08_83</t>
+          <t>元大10年IG電能債</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>00788B.TWO</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>富邦未來車</t>
+          <t>32.89</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>00895.TW</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>25.10</t>
+          <t>0.86%</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>32.91</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>3.28%</t>
+          <t>32.75</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>25.24</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>25.02</t>
-        </is>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>2,556</t>
+          <t>1,635</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2024/08/08_84</t>
+          <t>凱基美債25+</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>00779B.TWO</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>群益臺灣加權正2</t>
+          <t>33.10</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>00685L.TW</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>71.40</t>
+          <t>0.64%</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>33.12</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>4.10%</t>
+          <t>33.02</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>73.40</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>70.25</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>2,402</t>
+          <t>1,583</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2024/08/08_85</t>
+          <t>元大S&amp;P500反1</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>00648R.TW</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>中信上櫃ESG30</t>
+          <t>5.55</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>00928.TWO</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>15.56</t>
+          <t>0.72%</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>5.56</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>0.19%</t>
+          <t>5.54</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>15.74</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>15.38</t>
-        </is>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>2,372</t>
+          <t>1,501</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2024/08/08_86</t>
+          <t>富邦日本反1</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>00641R.TW</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>永豐台灣ESG</t>
+          <t>6.54</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>00888.TWO</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>15.85</t>
+          <t>1.21%</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>6.55</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>1.55%</t>
+          <t>6.49</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>16.03</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>15.77</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>2,305</t>
+          <t>1,489</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2024/08/08_87</t>
+          <t>富邦未來車</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>00895.TW</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>復華中國5G</t>
+          <t>26.95</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>00877.TWO</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>10.45</t>
+          <t>0.19%</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>27.02</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>1.14%</t>
+          <t>26.88</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>10.52</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>10.31</t>
-        </is>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>2,210</t>
+          <t>1,486</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2024/08/08_88</t>
+          <t>富邦日本正2</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>00640L.TW</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>復華S&amp;P500成長</t>
+          <t>48.09</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>00924.TW</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>20.84</t>
+          <t>2.06%</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>48.83</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>2.16%</t>
+          <t>47.97</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>20.95</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>20.83</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>2,203</t>
+          <t>1,404</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2024/08/08_89</t>
+          <t>中信美國公債0-1</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>00864B.TWO</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>統一FANG+</t>
+          <t>45.98</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>00757.TW</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>79.35</t>
+          <t>0.04%</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>46.04</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>3.70%</t>
+          <t>45.94</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>79.90</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>79.00</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>2,151</t>
+          <t>1,353</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2024/08/08_90</t>
+          <t>富邦公司治理</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>00692.TW</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>永豐ESG低碳高息</t>
+          <t>42.16</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>00930.TW</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>18.53</t>
+          <t>0.61%</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>42.53</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>1.33%</t>
+          <t>42.16</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>18.68</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>18.36</t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>0.32</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>2,147</t>
+          <t>1,318</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2024/08/08_91</t>
+          <t>國泰美國道瓊反1</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>00669R.TW</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>富邦NASDAQ正2</t>
+          <t>7.03</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>00670L.TW</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>102.35</t>
+          <t>0.71%</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>4.85</t>
+          <t>7.03</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>4.52%</t>
+          <t>7.02</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>103.40</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>101.35</t>
-        </is>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>2,110</t>
+          <t>1,295</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2024/08/08_92</t>
+          <t>復華20年美債</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>00768B.TWO</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>富邦科技</t>
+          <t>58.65</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>0052.TW</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>165.65</t>
+          <t>0.69%</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>58.65</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>2.30%</t>
+          <t>58.50</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>167.00</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>163.80</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>2,029</t>
+          <t>1,246</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2024/08/08_93</t>
+          <t>國泰智能電動車</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>00893.TW</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>群益臺灣加權反1</t>
+          <t>20.67</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>00686R.TW</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>0.24%</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>20.72</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>1.62%</t>
+          <t>20.58</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>1,987</t>
+          <t>1,221</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2024/08/08_94</t>
+          <t>群益臺灣加權正2</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>00685L.TW</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>元大S&amp;P500</t>
+          <t>79.05</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>00646.TW</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>52.85</t>
+          <t>0.69%</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>80.40</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>1.86%</t>
+          <t>78.95</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>53.05</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>52.80</t>
-        </is>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>1,964</t>
+          <t>1,196</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2024/08/08_95</t>
+          <t>中信上櫃ESG30</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>00928.TWO</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>富邦NASDAQ</t>
+          <t>16.67</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>00662.TW</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>75.10</t>
+          <t>0.60%</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>16.81</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>2.53%</t>
+          <t>16.62</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>75.50</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>74.95</t>
-        </is>
-      </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>1,864</t>
+          <t>1,137</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2024/08/08_96</t>
+          <t>統一美債10年Aa-A</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>00853B.TWO</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>中信小資高價30</t>
+          <t>30.65</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>00894.TW</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>19.24</t>
+          <t>0.99%</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>30.65</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>1.48%</t>
+          <t>30.49</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>19.44</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>19.03</t>
-        </is>
-      </c>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>1,787</t>
+          <t>1,113</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2024/08/08_97</t>
+          <t>永豐ESG低碳高息</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>00930.TW</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>元大臺灣ESG永續</t>
+          <t>19.23</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>00850.TW</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>42.02</t>
+          <t>0.62%</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>19.40</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>1.62%</t>
+          <t>19.23</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>42.47</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>41.65</t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>1,708</t>
+          <t>1,111</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2024/08/08_98</t>
+          <t>富邦NASDAQ</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>00662.TW</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>中信臺灣智慧50</t>
+          <t>79.45</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>00912.TW</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>17.87</t>
+          <t>0.51%</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>79.65</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>1.33%</t>
+          <t>79.15</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>18.01</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>17.76</t>
-        </is>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>1,517</t>
+          <t>1,091</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2024/08/08_99</t>
+          <t>富邦全球非投等債</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>00741B.TWO</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>兆豐藍籌30</t>
+          <t>39.20</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>00690.TW</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>32.70</t>
+          <t>0.10%</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>39.22</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>1.33%</t>
+          <t>39.18</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>33.00</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>32.47</t>
-        </is>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>1,487</t>
+          <t>1,089</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2024/08/08_100</t>
+          <t>富邦NASDAQ正2</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>00670L.TW</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>國泰中國A50正2</t>
+          <t>116.10</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>00655L.TW</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>21.25</t>
+          <t>0.96%</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>116.50</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>0.38%</t>
+          <t>115.60</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>21.46</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>20.86</t>
-        </is>
-      </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>1,484</t>
+          <t>1,012</t>
         </is>
       </c>
     </row>
